--- a/public/kp/price.xlsx
+++ b/public/kp/price.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5090A336-CD77-3C43-8B9A-AEA288C2803F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AFB7E2-8C1C-724F-AE20-53DC487C44D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,11 +1195,65 @@
     <xf numFmtId="12" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,53 +1267,14 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,12 +1292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1312,41 +1321,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3383,8 +3383,8 @@
   </sheetPr>
   <dimension ref="A1:I611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149:E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3402,16 +3402,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="79" thickBot="1" x14ac:dyDescent="0.2">
@@ -3433,27 +3433,27 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66">
         <v>250</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="67">
         <v>400</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -3466,11 +3466,11 @@
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
@@ -3483,11 +3483,11 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="56"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
@@ -3498,11 +3498,11 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="56"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3513,11 +3513,11 @@
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="12" t="s">
         <v>12</v>
       </c>
@@ -3529,17 +3529,17 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="53">
+      <c r="D8" s="56"/>
+      <c r="E8" s="58">
         <v>230</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="60">
         <v>370</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -3552,11 +3552,11 @@
     </row>
     <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="56"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
@@ -3567,11 +3567,11 @@
     </row>
     <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="56"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="11" t="s">
         <v>10</v>
       </c>
@@ -3584,11 +3584,11 @@
       <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="56"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
@@ -3599,11 +3599,11 @@
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
@@ -3615,17 +3615,17 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33">
+      <c r="D13" s="49"/>
+      <c r="E13" s="51">
         <v>500</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="53" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -3638,11 +3638,11 @@
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
@@ -3653,11 +3653,11 @@
     </row>
     <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
@@ -3670,11 +3670,11 @@
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
@@ -3685,11 +3685,11 @@
     </row>
     <row r="17" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="30"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="12" t="s">
         <v>12</v>
       </c>
@@ -3701,17 +3701,17 @@
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33">
+      <c r="D18" s="49"/>
+      <c r="E18" s="51">
         <v>370</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="53">
         <v>700</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -3724,11 +3724,11 @@
     </row>
     <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="30"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="11" t="s">
         <v>9</v>
       </c>
@@ -3739,11 +3739,11 @@
     </row>
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
@@ -3756,11 +3756,11 @@
       <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="11" t="s">
         <v>11</v>
       </c>
@@ -3771,11 +3771,11 @@
     </row>
     <row r="22" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="12" t="s">
         <v>12</v>
       </c>
@@ -3787,17 +3787,17 @@
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="33">
+      <c r="D23" s="49"/>
+      <c r="E23" s="51">
         <v>350</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="53">
         <v>650</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -3810,11 +3810,11 @@
     </row>
     <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
@@ -3825,11 +3825,11 @@
     </row>
     <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="30"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
@@ -3842,11 +3842,11 @@
       <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="30"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="11" t="s">
         <v>11</v>
       </c>
@@ -3857,11 +3857,11 @@
     </row>
     <row r="27" spans="1:9" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="12" t="s">
         <v>12</v>
       </c>
@@ -3873,45 +3873,45 @@
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33">
+      <c r="D28" s="49"/>
+      <c r="E28" s="51">
         <v>250</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="53">
         <v>500</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="38"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="39"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="24">
         <v>4607011661112</v>
       </c>
@@ -3920,22 +3920,22 @@
       <c r="A31" s="8">
         <v>6</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="12" t="s">
         <v>12</v>
       </c>
@@ -3947,69 +3947,69 @@
     </row>
     <row r="33" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="53">
+      <c r="D33" s="56"/>
+      <c r="E33" s="58">
         <v>230</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="60">
         <v>450</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>7</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="24">
         <v>4670000790018</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="40"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="29"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="12" t="s">
         <v>12</v>
       </c>
@@ -4021,17 +4021,17 @@
     </row>
     <row r="38" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="33">
+      <c r="D38" s="49"/>
+      <c r="E38" s="51">
         <v>650</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="53">
         <v>950</v>
       </c>
       <c r="G38" s="11" t="s">
@@ -4046,11 +4046,11 @@
       <c r="A39" s="8">
         <v>8</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="30"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="11" t="s">
         <v>24</v>
       </c>
@@ -4061,11 +4061,11 @@
     </row>
     <row r="40" spans="1:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="11" t="s">
         <v>25</v>
       </c>
@@ -4076,11 +4076,11 @@
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="57"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="13" t="s">
         <v>12</v>
       </c>
@@ -4092,17 +4092,17 @@
     </row>
     <row r="42" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="33">
+      <c r="D42" s="49"/>
+      <c r="E42" s="51">
         <v>590</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="53">
         <v>870</v>
       </c>
       <c r="G42" s="11" t="s">
@@ -4117,11 +4117,11 @@
       <c r="A43" s="8">
         <v>9</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="30"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="11" t="s">
         <v>24</v>
       </c>
@@ -4132,11 +4132,11 @@
     </row>
     <row r="44" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="30"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="11" t="s">
         <v>25</v>
       </c>
@@ -4147,11 +4147,11 @@
     </row>
     <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="57"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="75"/>
       <c r="G45" s="13" t="s">
         <v>12</v>
       </c>
@@ -4163,17 +4163,17 @@
     </row>
     <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="33">
+      <c r="D46" s="49"/>
+      <c r="E46" s="51">
         <v>290</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="53">
         <v>500</v>
       </c>
       <c r="G46" s="11" t="s">
@@ -4188,11 +4188,11 @@
       <c r="A47" s="8">
         <v>10</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="30"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="11" t="s">
         <v>24</v>
       </c>
@@ -4203,11 +4203,11 @@
     </row>
     <row r="48" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="30"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="11" t="s">
         <v>25</v>
       </c>
@@ -4218,11 +4218,11 @@
     </row>
     <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="57"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="13" t="s">
         <v>12</v>
       </c>
@@ -4234,17 +4234,17 @@
     </row>
     <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="33">
+      <c r="D50" s="49"/>
+      <c r="E50" s="51">
         <v>250</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="53">
         <v>500</v>
       </c>
       <c r="G50" s="11" t="s">
@@ -4257,11 +4257,11 @@
     </row>
     <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="30"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="11" t="s">
         <v>24</v>
       </c>
@@ -4274,11 +4274,11 @@
       <c r="A52" s="8">
         <v>11</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="30"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="11" t="s">
         <v>25</v>
       </c>
@@ -4289,11 +4289,11 @@
     </row>
     <row r="53" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="57"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="13" t="s">
         <v>12</v>
       </c>
@@ -4305,17 +4305,17 @@
     </row>
     <row r="54" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="33">
+      <c r="D54" s="49"/>
+      <c r="E54" s="51">
         <v>190</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="53">
         <v>500</v>
       </c>
       <c r="G54" s="11" t="s">
@@ -4330,11 +4330,11 @@
       <c r="A55" s="8">
         <v>12</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="30"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="11" t="s">
         <v>29</v>
       </c>
@@ -4345,11 +4345,11 @@
     </row>
     <row r="56" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="57"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="13" t="s">
         <v>12</v>
       </c>
@@ -4361,17 +4361,17 @@
     </row>
     <row r="57" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="53">
+      <c r="D57" s="56"/>
+      <c r="E57" s="58">
         <v>170</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="60">
         <v>450</v>
       </c>
       <c r="G57" s="11" t="s">
@@ -4386,11 +4386,11 @@
       <c r="A58" s="8">
         <v>13</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="56"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="11" t="s">
         <v>32</v>
       </c>
@@ -4401,11 +4401,11 @@
     </row>
     <row r="59" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="58"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="76"/>
       <c r="G59" s="13" t="s">
         <v>12</v>
       </c>
@@ -4417,17 +4417,17 @@
     </row>
     <row r="60" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="53">
+      <c r="D60" s="56"/>
+      <c r="E60" s="58">
         <v>130</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="60">
         <v>220</v>
       </c>
       <c r="G60" s="11" t="s">
@@ -4442,11 +4442,11 @@
       <c r="A61" s="8">
         <v>14</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="56"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="11" t="s">
         <v>36</v>
       </c>
@@ -4457,11 +4457,11 @@
     </row>
     <row r="62" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="58"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="76"/>
       <c r="G62" s="13" t="s">
         <v>12</v>
       </c>
@@ -4473,17 +4473,17 @@
     </row>
     <row r="63" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="53">
+      <c r="D63" s="56"/>
+      <c r="E63" s="58">
         <v>110</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F63" s="60">
         <v>200</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -4498,11 +4498,11 @@
       <c r="A64" s="8">
         <v>15</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="56"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="11" t="s">
         <v>36</v>
       </c>
@@ -4513,11 +4513,11 @@
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="58"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="76"/>
       <c r="G65" s="13" t="s">
         <v>12</v>
       </c>
@@ -4529,17 +4529,17 @@
     </row>
     <row r="66" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="53">
+      <c r="D66" s="56"/>
+      <c r="E66" s="58">
         <v>160</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="60">
         <v>270</v>
       </c>
       <c r="G66" s="11" t="s">
@@ -4554,11 +4554,11 @@
       <c r="A67" s="8">
         <v>16</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="56"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="61"/>
       <c r="G67" s="11" t="s">
         <v>41</v>
       </c>
@@ -4569,11 +4569,11 @@
     </row>
     <row r="68" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="29"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="12" t="s">
         <v>12</v>
       </c>
@@ -4585,17 +4585,17 @@
     </row>
     <row r="69" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="51"/>
-      <c r="E69" s="53">
+      <c r="D69" s="56"/>
+      <c r="E69" s="58">
         <v>140</v>
       </c>
-      <c r="F69" s="55">
+      <c r="F69" s="60">
         <v>240</v>
       </c>
       <c r="G69" s="11" t="s">
@@ -4610,11 +4610,11 @@
       <c r="A70" s="8">
         <v>17</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="56"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="61"/>
       <c r="G70" s="11" t="s">
         <v>44</v>
       </c>
@@ -4625,11 +4625,11 @@
     </row>
     <row r="71" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="29"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="53"/>
       <c r="G71" s="12" t="s">
         <v>12</v>
       </c>
@@ -4641,17 +4641,17 @@
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="53">
+      <c r="D72" s="56"/>
+      <c r="E72" s="58">
         <v>900</v>
       </c>
-      <c r="F72" s="55">
+      <c r="F72" s="60">
         <v>1700</v>
       </c>
       <c r="G72" s="11" t="s">
@@ -4664,11 +4664,11 @@
     </row>
     <row r="73" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="56"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="61"/>
       <c r="G73" s="11" t="s">
         <v>8</v>
       </c>
@@ -4679,11 +4679,11 @@
     </row>
     <row r="74" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="56"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="11" t="s">
         <v>47</v>
       </c>
@@ -4696,11 +4696,11 @@
       <c r="A75" s="8">
         <v>18</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="56"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="61"/>
       <c r="G75" s="11" t="s">
         <v>10</v>
       </c>
@@ -4711,11 +4711,11 @@
     </row>
     <row r="76" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="56"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="11" t="s">
         <v>48</v>
       </c>
@@ -4726,11 +4726,11 @@
     </row>
     <row r="77" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="29"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="53"/>
       <c r="G77" s="12" t="s">
         <v>12</v>
       </c>
@@ -4742,17 +4742,17 @@
     </row>
     <row r="78" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="53">
-        <v>450</v>
-      </c>
-      <c r="F78" s="55">
+      <c r="D78" s="56"/>
+      <c r="E78" s="58">
+        <v>650</v>
+      </c>
+      <c r="F78" s="60">
         <v>1000</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -4763,11 +4763,11 @@
     </row>
     <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="56"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="61"/>
       <c r="G79" s="11" t="s">
         <v>8</v>
       </c>
@@ -4780,11 +4780,11 @@
       <c r="A80" s="8">
         <v>19</v>
       </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="56"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="61"/>
       <c r="G80" s="11" t="s">
         <v>47</v>
       </c>
@@ -4795,11 +4795,11 @@
     </row>
     <row r="81" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="56"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="61"/>
       <c r="G81" s="11" t="s">
         <v>10</v>
       </c>
@@ -4810,11 +4810,11 @@
     </row>
     <row r="82" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="56"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="11" t="s">
         <v>48</v>
       </c>
@@ -4825,11 +4825,11 @@
     </row>
     <row r="83" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="29"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="12" t="s">
         <v>12</v>
       </c>
@@ -4841,17 +4841,17 @@
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="53">
-        <v>200</v>
-      </c>
-      <c r="F84" s="55">
+      <c r="D84" s="56"/>
+      <c r="E84" s="58">
+        <v>250</v>
+      </c>
+      <c r="F84" s="60">
         <v>350</v>
       </c>
       <c r="G84" s="11" t="s">
@@ -4864,11 +4864,11 @@
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="56"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="11" t="s">
         <v>53</v>
       </c>
@@ -4881,11 +4881,11 @@
       <c r="A86" s="8">
         <v>20</v>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="56"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="11" t="s">
         <v>54</v>
       </c>
@@ -4896,11 +4896,11 @@
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="56"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="11" t="s">
         <v>55</v>
       </c>
@@ -4911,11 +4911,11 @@
     </row>
     <row r="88" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="29"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="12" t="s">
         <v>12</v>
       </c>
@@ -4927,17 +4927,17 @@
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="33">
+      <c r="D89" s="49"/>
+      <c r="E89" s="51">
         <v>300</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F89" s="53">
         <v>600</v>
       </c>
       <c r="G89" s="11" t="s">
@@ -4950,11 +4950,11 @@
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="30"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="54"/>
       <c r="G90" s="11" t="s">
         <v>53</v>
       </c>
@@ -4965,11 +4965,11 @@
     </row>
     <row r="91" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="30"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="54"/>
       <c r="G91" s="11" t="s">
         <v>54</v>
       </c>
@@ -4982,11 +4982,11 @@
       <c r="A92" s="8">
         <v>21</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="30"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="54"/>
       <c r="G92" s="11" t="s">
         <v>55</v>
       </c>
@@ -4997,11 +4997,11 @@
     </row>
     <row r="93" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="30"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="54"/>
       <c r="G93" s="12" t="s">
         <v>12</v>
       </c>
@@ -5013,17 +5013,17 @@
     </row>
     <row r="94" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="53">
+      <c r="D94" s="56"/>
+      <c r="E94" s="58">
         <v>400</v>
       </c>
-      <c r="F94" s="55">
+      <c r="F94" s="60">
         <v>670</v>
       </c>
       <c r="G94" s="11" t="s">
@@ -5038,11 +5038,11 @@
       <c r="A95" s="8">
         <v>22</v>
       </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="56"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="61"/>
       <c r="G95" s="11" t="s">
         <v>53</v>
       </c>
@@ -5053,11 +5053,11 @@
     </row>
     <row r="96" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="56"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="11" t="s">
         <v>54</v>
       </c>
@@ -5068,11 +5068,11 @@
     </row>
     <row r="97" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="56"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="61"/>
       <c r="G97" s="11" t="s">
         <v>55</v>
       </c>
@@ -5083,11 +5083,11 @@
     </row>
     <row r="98" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="29"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="12" t="s">
         <v>12</v>
       </c>
@@ -5099,34 +5099,34 @@
     </row>
     <row r="99" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="33">
+      <c r="D99" s="49"/>
+      <c r="E99" s="51">
         <v>160</v>
       </c>
-      <c r="F99" s="29">
+      <c r="F99" s="53">
         <v>400</v>
       </c>
-      <c r="G99" s="35" t="s">
+      <c r="G99" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="38"/>
+      <c r="H99" s="31"/>
       <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="39"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="32"/>
       <c r="I100" s="24">
         <v>4607011660153</v>
       </c>
@@ -5135,33 +5135,33 @@
       <c r="A101" s="8">
         <v>23</v>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="39"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="32"/>
       <c r="I101" s="24"/>
     </row>
     <row r="102" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="40"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="26"/>
     </row>
     <row r="103" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="30"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="54"/>
       <c r="G103" s="12" t="s">
         <v>12</v>
       </c>
@@ -5173,34 +5173,34 @@
     </row>
     <row r="104" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="43" t="s">
+      <c r="C104" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="33">
+      <c r="D104" s="49"/>
+      <c r="E104" s="51">
         <v>420</v>
       </c>
-      <c r="F104" s="29">
+      <c r="F104" s="53">
         <v>850</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="38"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="39"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="32"/>
       <c r="I105" s="24">
         <v>4680002950099</v>
       </c>
@@ -5209,33 +5209,33 @@
       <c r="A106" s="8">
         <v>24</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="39"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="32"/>
       <c r="I106" s="24"/>
     </row>
     <row r="107" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="40"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="26"/>
     </row>
     <row r="108" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="30"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="54"/>
       <c r="G108" s="12" t="s">
         <v>12</v>
       </c>
@@ -5247,69 +5247,69 @@
     </row>
     <row r="109" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="31"/>
-      <c r="E109" s="33">
+      <c r="D109" s="49"/>
+      <c r="E109" s="51">
         <v>750</v>
       </c>
-      <c r="F109" s="29">
+      <c r="F109" s="53">
         <v>1300</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="G109" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="38"/>
+      <c r="H109" s="31"/>
       <c r="I109" s="27"/>
     </row>
     <row r="110" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="39"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="32"/>
       <c r="I110" s="24"/>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8">
         <v>24</v>
       </c>
-      <c r="B111" s="42"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="39"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="32"/>
       <c r="I111" s="24">
         <v>4670000790681</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="40"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="26"/>
     </row>
     <row r="113" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="30"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="54"/>
       <c r="G113" s="12" t="s">
         <v>12</v>
       </c>
@@ -5321,69 +5321,69 @@
     </row>
     <row r="114" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="33">
+      <c r="D114" s="49"/>
+      <c r="E114" s="51">
         <v>600</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F114" s="53">
         <v>1000</v>
       </c>
-      <c r="G114" s="35" t="s">
+      <c r="G114" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="38"/>
+      <c r="H114" s="31"/>
       <c r="I114" s="27"/>
     </row>
     <row r="115" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="39"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="32"/>
       <c r="I115" s="24"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="8">
         <v>24</v>
       </c>
-      <c r="B116" s="42"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="39"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="32"/>
       <c r="I116" s="24">
         <v>4670000790674</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="40"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="26"/>
     </row>
     <row r="118" spans="1:9" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="30"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="54"/>
       <c r="G118" s="12" t="s">
         <v>12</v>
       </c>
@@ -5395,69 +5395,69 @@
     </row>
     <row r="119" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8"/>
-      <c r="B119" s="41" t="s">
+      <c r="B119" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C119" s="43" t="s">
+      <c r="C119" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="33">
+      <c r="D119" s="49"/>
+      <c r="E119" s="51">
         <v>350</v>
       </c>
-      <c r="F119" s="29">
+      <c r="F119" s="53">
         <v>600</v>
       </c>
-      <c r="G119" s="35" t="s">
+      <c r="G119" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="38"/>
+      <c r="H119" s="31"/>
       <c r="I119" s="27"/>
     </row>
     <row r="120" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="39"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="32"/>
       <c r="I120" s="24"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
         <v>24</v>
       </c>
-      <c r="B121" s="42"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="39"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="32"/>
       <c r="I121" s="24">
         <v>4670000799998</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="40"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="33"/>
       <c r="I122" s="26"/>
     </row>
     <row r="123" spans="1:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="30"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="54"/>
       <c r="G123" s="12" t="s">
         <v>12</v>
       </c>
@@ -5469,69 +5469,69 @@
     </row>
     <row r="124" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C124" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="33">
+      <c r="D124" s="49"/>
+      <c r="E124" s="51">
         <v>390</v>
       </c>
-      <c r="F124" s="29">
+      <c r="F124" s="53">
         <v>900</v>
       </c>
-      <c r="G124" s="35" t="s">
+      <c r="G124" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="38"/>
+      <c r="H124" s="31"/>
       <c r="I124" s="27"/>
     </row>
     <row r="125" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="8">
         <v>25</v>
       </c>
-      <c r="B125" s="42"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="39"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="32"/>
       <c r="I125" s="24">
         <v>4680002950082</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="39"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="32"/>
       <c r="I126" s="24"/>
     </row>
     <row r="127" spans="1:9" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="40"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="33"/>
       <c r="I127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="30"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="54"/>
       <c r="G128" s="12" t="s">
         <v>12</v>
       </c>
@@ -5543,69 +5543,69 @@
     </row>
     <row r="129" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C129" s="43" t="s">
+      <c r="C129" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="33">
+      <c r="D129" s="49"/>
+      <c r="E129" s="51">
         <v>190</v>
       </c>
-      <c r="F129" s="29">
+      <c r="F129" s="53">
         <v>400</v>
       </c>
-      <c r="G129" s="35" t="s">
+      <c r="G129" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="38"/>
+      <c r="H129" s="31"/>
       <c r="I129" s="27"/>
     </row>
     <row r="130" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8">
         <v>26</v>
       </c>
-      <c r="B130" s="42"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="39"/>
+      <c r="B130" s="74"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="32"/>
       <c r="I130" s="24">
         <v>4680002950068</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="39"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="32"/>
       <c r="I131" s="24"/>
     </row>
     <row r="132" spans="1:9" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="40"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="26"/>
     </row>
     <row r="133" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="30"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="54"/>
       <c r="G133" s="14" t="s">
         <v>12</v>
       </c>
@@ -5617,69 +5617,69 @@
     </row>
     <row r="134" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C134" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D134" s="31"/>
-      <c r="E134" s="33">
+      <c r="D134" s="49"/>
+      <c r="E134" s="51">
         <v>200</v>
       </c>
-      <c r="F134" s="29">
+      <c r="F134" s="53">
         <v>450</v>
       </c>
-      <c r="G134" s="35" t="s">
+      <c r="G134" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H134" s="38"/>
+      <c r="H134" s="31"/>
       <c r="I134" s="27"/>
     </row>
     <row r="135" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8"/>
-      <c r="B135" s="42"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="39"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="32"/>
       <c r="I135" s="24"/>
     </row>
     <row r="136" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="8">
         <v>27</v>
       </c>
-      <c r="B136" s="42"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="39"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="32"/>
       <c r="I136" s="24">
         <v>4680002950075</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
-      <c r="B137" s="42"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="40"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="26"/>
     </row>
     <row r="138" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="30"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="54"/>
       <c r="G138" s="12" t="s">
         <v>12</v>
       </c>
@@ -5691,69 +5691,69 @@
     </row>
     <row r="139" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
-      <c r="B139" s="41" t="s">
+      <c r="B139" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="C139" s="43" t="s">
+      <c r="C139" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D139" s="31"/>
-      <c r="E139" s="33">
+      <c r="D139" s="49"/>
+      <c r="E139" s="51">
         <v>1000</v>
       </c>
-      <c r="F139" s="29">
+      <c r="F139" s="53">
         <v>2000</v>
       </c>
-      <c r="G139" s="35" t="s">
+      <c r="G139" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H139" s="38"/>
+      <c r="H139" s="31"/>
       <c r="I139" s="27"/>
     </row>
     <row r="140" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8"/>
-      <c r="B140" s="42"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="39"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="32"/>
       <c r="I140" s="24"/>
     </row>
     <row r="141" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8">
         <v>28</v>
       </c>
-      <c r="B141" s="42"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="39"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="32"/>
       <c r="I141" s="24">
         <v>4670000790711</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
-      <c r="B142" s="42"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="40"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="26"/>
     </row>
     <row r="143" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
-      <c r="B143" s="42"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="30"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="54"/>
       <c r="G143" s="12" t="s">
         <v>12</v>
       </c>
@@ -5765,69 +5765,69 @@
     </row>
     <row r="144" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
-      <c r="B144" s="41" t="s">
+      <c r="B144" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C144" s="43" t="s">
+      <c r="C144" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D144" s="31"/>
-      <c r="E144" s="33">
+      <c r="D144" s="49"/>
+      <c r="E144" s="51">
         <v>150</v>
       </c>
-      <c r="F144" s="29">
+      <c r="F144" s="53">
         <v>450</v>
       </c>
-      <c r="G144" s="35" t="s">
+      <c r="G144" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H144" s="38"/>
+      <c r="H144" s="31"/>
       <c r="I144" s="27"/>
     </row>
     <row r="145" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8">
         <v>29</v>
       </c>
-      <c r="B145" s="42"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="39"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="32"/>
       <c r="I145" s="24">
         <v>4670000790100</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="39"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="32"/>
       <c r="I146" s="24"/>
     </row>
     <row r="147" spans="1:9" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="40"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="33"/>
       <c r="I147" s="26"/>
     </row>
     <row r="148" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
-      <c r="B148" s="42"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="30"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="54"/>
       <c r="G148" s="12" t="s">
         <v>12</v>
       </c>
@@ -5839,69 +5839,69 @@
     </row>
     <row r="149" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
-      <c r="B149" s="41" t="s">
+      <c r="B149" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="31"/>
-      <c r="E149" s="33">
+      <c r="D149" s="49"/>
+      <c r="E149" s="51">
         <v>60</v>
       </c>
-      <c r="F149" s="29">
+      <c r="F149" s="53">
         <v>250</v>
       </c>
-      <c r="G149" s="35" t="s">
+      <c r="G149" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H149" s="38"/>
+      <c r="H149" s="31"/>
       <c r="I149" s="27"/>
     </row>
     <row r="150" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8">
         <v>30</v>
       </c>
-      <c r="B150" s="42"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="39"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="32"/>
       <c r="I150" s="24">
         <v>4607011664786</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
-      <c r="B151" s="42"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="39"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="47"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="32"/>
       <c r="I151" s="24"/>
     </row>
     <row r="152" spans="1:9" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
-      <c r="B152" s="42"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="40"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="33"/>
       <c r="I152" s="26"/>
     </row>
     <row r="153" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
-      <c r="B153" s="42"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="30"/>
+      <c r="B153" s="74"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="54"/>
       <c r="G153" s="12" t="s">
         <v>12</v>
       </c>
@@ -5913,69 +5913,69 @@
     </row>
     <row r="154" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C154" s="43" t="s">
+      <c r="C154" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D154" s="31"/>
-      <c r="E154" s="33">
+      <c r="D154" s="49"/>
+      <c r="E154" s="51">
         <v>45</v>
       </c>
-      <c r="F154" s="29">
+      <c r="F154" s="53">
         <v>150</v>
       </c>
-      <c r="G154" s="35" t="s">
+      <c r="G154" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H154" s="38"/>
+      <c r="H154" s="31"/>
       <c r="I154" s="27"/>
     </row>
     <row r="155" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>31</v>
       </c>
-      <c r="B155" s="42"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="39"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="32"/>
       <c r="I155" s="24">
         <v>4670000790087</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="3" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
-      <c r="B156" s="42"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="39"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="32"/>
       <c r="I156" s="24"/>
     </row>
     <row r="157" spans="1:9" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
-      <c r="B157" s="42"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="40"/>
+      <c r="B157" s="74"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="26"/>
     </row>
     <row r="158" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
-      <c r="B158" s="42"/>
-      <c r="C158" s="45"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="30"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="54"/>
       <c r="G158" s="15" t="s">
         <v>12</v>
       </c>
@@ -5987,69 +5987,69 @@
     </row>
     <row r="159" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="43" t="s">
+      <c r="C159" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D159" s="31"/>
-      <c r="E159" s="33">
+      <c r="D159" s="49"/>
+      <c r="E159" s="51">
         <v>45</v>
       </c>
-      <c r="F159" s="29">
+      <c r="F159" s="53">
         <v>150</v>
       </c>
-      <c r="G159" s="35" t="s">
+      <c r="G159" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H159" s="38"/>
+      <c r="H159" s="31"/>
       <c r="I159" s="27"/>
     </row>
     <row r="160" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>32</v>
       </c>
-      <c r="B160" s="42"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="34"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="39"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="32"/>
       <c r="I160" s="24">
         <v>4670000790094</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
-      <c r="B161" s="42"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="39"/>
+      <c r="B161" s="74"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="32"/>
       <c r="I161" s="24"/>
     </row>
     <row r="162" spans="1:9" ht="12.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
-      <c r="B162" s="42"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="40"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="33"/>
       <c r="I162" s="26"/>
     </row>
     <row r="163" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
-      <c r="B163" s="42"/>
-      <c r="C163" s="45"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="30"/>
+      <c r="B163" s="74"/>
+      <c r="C163" s="48"/>
+      <c r="D163" s="50"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="54"/>
       <c r="G163" s="15" t="s">
         <v>12</v>
       </c>
@@ -6060,33 +6060,33 @@
       <c r="I163" s="28"/>
     </row>
     <row r="164" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C164" s="43" t="s">
+      <c r="C164" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D164" s="31"/>
-      <c r="E164" s="33">
+      <c r="D164" s="49"/>
+      <c r="E164" s="51">
         <v>45</v>
       </c>
-      <c r="F164" s="29">
+      <c r="F164" s="53">
         <v>150</v>
       </c>
-      <c r="G164" s="35" t="s">
+      <c r="G164" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H164" s="38"/>
+      <c r="H164" s="31"/>
       <c r="I164" s="27"/>
     </row>
     <row r="165" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="42"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="39"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="32"/>
       <c r="I165" s="24">
         <v>4670000790070</v>
       </c>
@@ -6095,31 +6095,31 @@
       <c r="A166" s="10">
         <v>33</v>
       </c>
-      <c r="B166" s="42"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="39"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="52"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="32"/>
       <c r="I166" s="24"/>
     </row>
     <row r="167" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="42"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="40"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="52"/>
+      <c r="F167" s="54"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="33"/>
       <c r="I167" s="26"/>
     </row>
     <row r="168" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="42"/>
-      <c r="C168" s="45"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="70"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="55"/>
       <c r="G168" s="16" t="s">
         <v>12</v>
       </c>
@@ -6130,1360 +6130,1553 @@
       <c r="I168" s="28"/>
     </row>
     <row r="169" spans="1:9" ht="25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="71" t="s">
+      <c r="A169" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B169" s="71"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="73" t="s">
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G169" s="74">
+      <c r="G169" s="39">
         <f>SUM(H168,H163,H158,H153,H148,H138,H133,H128,H123,H118,H113,H108,H103,H98,H93,H88,H83,H77,H71,H68,H65,H62,H59,H56,H53,H49,H45,H41,H37,H32,H27,H22,H17,H12,H7,H143)</f>
         <v>0</v>
       </c>
-      <c r="H169" s="75"/>
+      <c r="H169" s="40"/>
     </row>
     <row r="170" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="76" t="s">
+      <c r="A170" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="78"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="36"/>
       <c r="I170" s="28"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I171" s="79"/>
+      <c r="I171" s="30"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I172" s="79"/>
+      <c r="I172" s="30"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I173" s="79"/>
+      <c r="I173" s="30"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I174" s="79"/>
+      <c r="I174" s="30"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I175" s="79"/>
+      <c r="I175" s="30"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I176" s="79"/>
+      <c r="I176" s="30"/>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I177" s="79"/>
+      <c r="I177" s="30"/>
     </row>
     <row r="178" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I178" s="79"/>
+      <c r="I178" s="30"/>
     </row>
     <row r="179" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I179" s="79"/>
+      <c r="I179" s="30"/>
     </row>
     <row r="180" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I180" s="79"/>
+      <c r="I180" s="30"/>
     </row>
     <row r="181" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I181" s="79"/>
+      <c r="I181" s="30"/>
     </row>
     <row r="182" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I182" s="79"/>
+      <c r="I182" s="30"/>
     </row>
     <row r="183" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I183" s="79"/>
+      <c r="I183" s="30"/>
     </row>
     <row r="184" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I184" s="79"/>
+      <c r="I184" s="30"/>
     </row>
     <row r="185" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I185" s="79"/>
+      <c r="I185" s="30"/>
     </row>
     <row r="186" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I186" s="79"/>
+      <c r="I186" s="30"/>
     </row>
     <row r="187" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I187" s="79"/>
+      <c r="I187" s="30"/>
     </row>
     <row r="188" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I188" s="79"/>
+      <c r="I188" s="30"/>
     </row>
     <row r="189" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I189" s="79"/>
+      <c r="I189" s="30"/>
     </row>
     <row r="190" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I190" s="79"/>
+      <c r="I190" s="30"/>
     </row>
     <row r="191" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I191" s="79"/>
+      <c r="I191" s="30"/>
     </row>
     <row r="192" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I192" s="79"/>
+      <c r="I192" s="30"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I193" s="79"/>
+      <c r="I193" s="30"/>
     </row>
     <row r="194" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I194" s="79"/>
+      <c r="I194" s="30"/>
     </row>
     <row r="195" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I195" s="79"/>
+      <c r="I195" s="30"/>
     </row>
     <row r="196" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I196" s="79"/>
+      <c r="I196" s="30"/>
     </row>
     <row r="197" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I197" s="79"/>
+      <c r="I197" s="30"/>
     </row>
     <row r="198" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I198" s="79"/>
+      <c r="I198" s="30"/>
     </row>
     <row r="199" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I199" s="79"/>
+      <c r="I199" s="30"/>
     </row>
     <row r="200" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I200" s="79"/>
+      <c r="I200" s="30"/>
     </row>
     <row r="201" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I201" s="79"/>
+      <c r="I201" s="30"/>
     </row>
     <row r="202" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I202" s="79"/>
+      <c r="I202" s="30"/>
     </row>
     <row r="203" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I203" s="79"/>
+      <c r="I203" s="30"/>
     </row>
     <row r="204" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I204" s="79"/>
+      <c r="I204" s="30"/>
     </row>
     <row r="205" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I205" s="79"/>
+      <c r="I205" s="30"/>
     </row>
     <row r="206" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I206" s="79"/>
+      <c r="I206" s="30"/>
     </row>
     <row r="207" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I207" s="79"/>
+      <c r="I207" s="30"/>
     </row>
     <row r="208" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I208" s="79"/>
+      <c r="I208" s="30"/>
     </row>
     <row r="209" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I209" s="79"/>
+      <c r="I209" s="30"/>
     </row>
     <row r="210" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I210" s="79"/>
+      <c r="I210" s="30"/>
     </row>
     <row r="211" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I211" s="79"/>
+      <c r="I211" s="30"/>
     </row>
     <row r="212" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I212" s="79"/>
+      <c r="I212" s="30"/>
     </row>
     <row r="213" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I213" s="79"/>
+      <c r="I213" s="30"/>
     </row>
     <row r="214" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I214" s="79"/>
+      <c r="I214" s="30"/>
     </row>
     <row r="215" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I215" s="79"/>
+      <c r="I215" s="30"/>
     </row>
     <row r="216" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I216" s="79"/>
+      <c r="I216" s="30"/>
     </row>
     <row r="217" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I217" s="79"/>
+      <c r="I217" s="30"/>
     </row>
     <row r="218" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I218" s="79"/>
+      <c r="I218" s="30"/>
     </row>
     <row r="219" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I219" s="79"/>
+      <c r="I219" s="30"/>
     </row>
     <row r="220" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I220" s="79"/>
+      <c r="I220" s="30"/>
     </row>
     <row r="221" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I221" s="79"/>
+      <c r="I221" s="30"/>
     </row>
     <row r="222" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I222" s="79"/>
+      <c r="I222" s="30"/>
     </row>
     <row r="223" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I223" s="79"/>
+      <c r="I223" s="30"/>
     </row>
     <row r="224" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I224" s="79"/>
+      <c r="I224" s="30"/>
     </row>
     <row r="225" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I225" s="79"/>
+      <c r="I225" s="30"/>
     </row>
     <row r="226" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I226" s="79"/>
+      <c r="I226" s="30"/>
     </row>
     <row r="227" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I227" s="79"/>
+      <c r="I227" s="30"/>
     </row>
     <row r="228" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I228" s="79"/>
+      <c r="I228" s="30"/>
     </row>
     <row r="229" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I229" s="79"/>
+      <c r="I229" s="30"/>
     </row>
     <row r="230" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I230" s="79"/>
+      <c r="I230" s="30"/>
     </row>
     <row r="231" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I231" s="79"/>
+      <c r="I231" s="30"/>
     </row>
     <row r="232" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I232" s="79"/>
+      <c r="I232" s="30"/>
     </row>
     <row r="233" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I233" s="79"/>
+      <c r="I233" s="30"/>
     </row>
     <row r="234" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I234" s="79"/>
+      <c r="I234" s="30"/>
     </row>
     <row r="235" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I235" s="79"/>
+      <c r="I235" s="30"/>
     </row>
     <row r="236" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I236" s="79"/>
+      <c r="I236" s="30"/>
     </row>
     <row r="237" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I237" s="79"/>
+      <c r="I237" s="30"/>
     </row>
     <row r="238" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I238" s="79"/>
+      <c r="I238" s="30"/>
     </row>
     <row r="239" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I239" s="79"/>
+      <c r="I239" s="30"/>
     </row>
     <row r="240" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I240" s="79"/>
+      <c r="I240" s="30"/>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I241" s="79"/>
+      <c r="I241" s="30"/>
     </row>
     <row r="242" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I242" s="79"/>
+      <c r="I242" s="30"/>
     </row>
     <row r="243" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I243" s="79"/>
+      <c r="I243" s="30"/>
     </row>
     <row r="244" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I244" s="79"/>
+      <c r="I244" s="30"/>
     </row>
     <row r="245" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I245" s="79"/>
+      <c r="I245" s="30"/>
     </row>
     <row r="246" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I246" s="79"/>
+      <c r="I246" s="30"/>
     </row>
     <row r="247" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I247" s="79"/>
+      <c r="I247" s="30"/>
     </row>
     <row r="248" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I248" s="79"/>
+      <c r="I248" s="30"/>
     </row>
     <row r="249" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I249" s="79"/>
+      <c r="I249" s="30"/>
     </row>
     <row r="250" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I250" s="79"/>
+      <c r="I250" s="30"/>
     </row>
     <row r="251" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I251" s="79"/>
+      <c r="I251" s="30"/>
     </row>
     <row r="252" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I252" s="79"/>
+      <c r="I252" s="30"/>
     </row>
     <row r="253" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I253" s="79"/>
+      <c r="I253" s="30"/>
     </row>
     <row r="254" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I254" s="79"/>
+      <c r="I254" s="30"/>
     </row>
     <row r="255" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I255" s="79"/>
+      <c r="I255" s="30"/>
     </row>
     <row r="256" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I256" s="79"/>
+      <c r="I256" s="30"/>
     </row>
     <row r="257" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I257" s="79"/>
+      <c r="I257" s="30"/>
     </row>
     <row r="258" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I258" s="79"/>
+      <c r="I258" s="30"/>
     </row>
     <row r="259" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I259" s="79"/>
+      <c r="I259" s="30"/>
     </row>
     <row r="260" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I260" s="79"/>
+      <c r="I260" s="30"/>
     </row>
     <row r="261" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I261" s="79"/>
+      <c r="I261" s="30"/>
     </row>
     <row r="262" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I262" s="79"/>
+      <c r="I262" s="30"/>
     </row>
     <row r="263" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I263" s="79"/>
+      <c r="I263" s="30"/>
     </row>
     <row r="264" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I264" s="79"/>
+      <c r="I264" s="30"/>
     </row>
     <row r="265" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I265" s="79"/>
+      <c r="I265" s="30"/>
     </row>
     <row r="266" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I266" s="79"/>
+      <c r="I266" s="30"/>
     </row>
     <row r="267" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I267" s="79"/>
+      <c r="I267" s="30"/>
     </row>
     <row r="268" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I268" s="79"/>
+      <c r="I268" s="30"/>
     </row>
     <row r="269" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I269" s="79"/>
+      <c r="I269" s="30"/>
     </row>
     <row r="270" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I270" s="79"/>
+      <c r="I270" s="30"/>
     </row>
     <row r="271" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I271" s="79"/>
+      <c r="I271" s="30"/>
     </row>
     <row r="272" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I272" s="79"/>
+      <c r="I272" s="30"/>
     </row>
     <row r="273" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I273" s="79"/>
+      <c r="I273" s="30"/>
     </row>
     <row r="274" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I274" s="79"/>
+      <c r="I274" s="30"/>
     </row>
     <row r="275" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I275" s="79"/>
+      <c r="I275" s="30"/>
     </row>
     <row r="276" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I276" s="79"/>
+      <c r="I276" s="30"/>
     </row>
     <row r="277" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I277" s="79"/>
+      <c r="I277" s="30"/>
     </row>
     <row r="278" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I278" s="79"/>
+      <c r="I278" s="30"/>
     </row>
     <row r="279" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I279" s="79"/>
+      <c r="I279" s="30"/>
     </row>
     <row r="280" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I280" s="79"/>
+      <c r="I280" s="30"/>
     </row>
     <row r="281" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I281" s="79"/>
+      <c r="I281" s="30"/>
     </row>
     <row r="282" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I282" s="79"/>
+      <c r="I282" s="30"/>
     </row>
     <row r="283" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I283" s="79"/>
+      <c r="I283" s="30"/>
     </row>
     <row r="284" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I284" s="79"/>
+      <c r="I284" s="30"/>
     </row>
     <row r="285" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I285" s="79"/>
+      <c r="I285" s="30"/>
     </row>
     <row r="286" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I286" s="79"/>
+      <c r="I286" s="30"/>
     </row>
     <row r="287" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I287" s="79"/>
+      <c r="I287" s="30"/>
     </row>
     <row r="288" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I288" s="79"/>
+      <c r="I288" s="30"/>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I289" s="79"/>
+      <c r="I289" s="30"/>
     </row>
     <row r="290" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I290" s="79"/>
+      <c r="I290" s="30"/>
     </row>
     <row r="291" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I291" s="79"/>
+      <c r="I291" s="30"/>
     </row>
     <row r="292" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I292" s="79"/>
+      <c r="I292" s="30"/>
     </row>
     <row r="293" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I293" s="79"/>
+      <c r="I293" s="30"/>
     </row>
     <row r="294" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I294" s="79"/>
+      <c r="I294" s="30"/>
     </row>
     <row r="295" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I295" s="79"/>
+      <c r="I295" s="30"/>
     </row>
     <row r="296" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I296" s="79"/>
+      <c r="I296" s="30"/>
     </row>
     <row r="297" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I297" s="79"/>
+      <c r="I297" s="30"/>
     </row>
     <row r="298" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I298" s="79"/>
+      <c r="I298" s="30"/>
     </row>
     <row r="299" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I299" s="79"/>
+      <c r="I299" s="30"/>
     </row>
     <row r="300" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I300" s="79"/>
+      <c r="I300" s="30"/>
     </row>
     <row r="301" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I301" s="79"/>
+      <c r="I301" s="30"/>
     </row>
     <row r="302" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I302" s="79"/>
+      <c r="I302" s="30"/>
     </row>
     <row r="303" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I303" s="79"/>
+      <c r="I303" s="30"/>
     </row>
     <row r="304" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I304" s="79"/>
+      <c r="I304" s="30"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I305" s="79"/>
+      <c r="I305" s="30"/>
     </row>
     <row r="306" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I306" s="79"/>
+      <c r="I306" s="30"/>
     </row>
     <row r="307" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I307" s="79"/>
+      <c r="I307" s="30"/>
     </row>
     <row r="308" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I308" s="79"/>
+      <c r="I308" s="30"/>
     </row>
     <row r="309" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I309" s="79"/>
+      <c r="I309" s="30"/>
     </row>
     <row r="310" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I310" s="79"/>
+      <c r="I310" s="30"/>
     </row>
     <row r="311" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I311" s="79"/>
+      <c r="I311" s="30"/>
     </row>
     <row r="312" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I312" s="79"/>
+      <c r="I312" s="30"/>
     </row>
     <row r="313" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I313" s="79"/>
+      <c r="I313" s="30"/>
     </row>
     <row r="314" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I314" s="79"/>
+      <c r="I314" s="30"/>
     </row>
     <row r="315" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I315" s="79"/>
+      <c r="I315" s="30"/>
     </row>
     <row r="316" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I316" s="79"/>
+      <c r="I316" s="30"/>
     </row>
     <row r="317" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I317" s="79"/>
+      <c r="I317" s="30"/>
     </row>
     <row r="318" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I318" s="79"/>
+      <c r="I318" s="30"/>
     </row>
     <row r="319" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I319" s="79"/>
+      <c r="I319" s="30"/>
     </row>
     <row r="320" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I320" s="79"/>
+      <c r="I320" s="30"/>
     </row>
     <row r="321" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I321" s="79"/>
+      <c r="I321" s="30"/>
     </row>
     <row r="322" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I322" s="79"/>
+      <c r="I322" s="30"/>
     </row>
     <row r="323" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I323" s="79"/>
+      <c r="I323" s="30"/>
     </row>
     <row r="324" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I324" s="79"/>
+      <c r="I324" s="30"/>
     </row>
     <row r="325" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I325" s="79"/>
+      <c r="I325" s="30"/>
     </row>
     <row r="326" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I326" s="79"/>
+      <c r="I326" s="30"/>
     </row>
     <row r="327" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I327" s="79"/>
+      <c r="I327" s="30"/>
     </row>
     <row r="328" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I328" s="79"/>
+      <c r="I328" s="30"/>
     </row>
     <row r="329" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I329" s="79"/>
+      <c r="I329" s="30"/>
     </row>
     <row r="330" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I330" s="79"/>
+      <c r="I330" s="30"/>
     </row>
     <row r="331" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I331" s="79"/>
+      <c r="I331" s="30"/>
     </row>
     <row r="332" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I332" s="79"/>
+      <c r="I332" s="30"/>
     </row>
     <row r="333" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I333" s="79"/>
+      <c r="I333" s="30"/>
     </row>
     <row r="334" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I334" s="79"/>
+      <c r="I334" s="30"/>
     </row>
     <row r="335" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I335" s="79"/>
+      <c r="I335" s="30"/>
     </row>
     <row r="336" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I336" s="79"/>
+      <c r="I336" s="30"/>
     </row>
     <row r="337" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I337" s="79"/>
+      <c r="I337" s="30"/>
     </row>
     <row r="338" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I338" s="79"/>
+      <c r="I338" s="30"/>
     </row>
     <row r="339" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I339" s="79"/>
+      <c r="I339" s="30"/>
     </row>
     <row r="340" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I340" s="79"/>
+      <c r="I340" s="30"/>
     </row>
     <row r="341" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I341" s="79"/>
+      <c r="I341" s="30"/>
     </row>
     <row r="342" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I342" s="79"/>
+      <c r="I342" s="30"/>
     </row>
     <row r="343" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I343" s="79"/>
+      <c r="I343" s="30"/>
     </row>
     <row r="344" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I344" s="79"/>
+      <c r="I344" s="30"/>
     </row>
     <row r="345" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I345" s="79"/>
+      <c r="I345" s="30"/>
     </row>
     <row r="346" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I346" s="79"/>
+      <c r="I346" s="30"/>
     </row>
     <row r="347" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I347" s="79"/>
+      <c r="I347" s="30"/>
     </row>
     <row r="348" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I348" s="79"/>
+      <c r="I348" s="30"/>
     </row>
     <row r="349" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I349" s="79"/>
+      <c r="I349" s="30"/>
     </row>
     <row r="350" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I350" s="79"/>
+      <c r="I350" s="30"/>
     </row>
     <row r="351" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I351" s="79"/>
+      <c r="I351" s="30"/>
     </row>
     <row r="352" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I352" s="79"/>
+      <c r="I352" s="30"/>
     </row>
     <row r="353" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I353" s="79"/>
+      <c r="I353" s="30"/>
     </row>
     <row r="354" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I354" s="79"/>
+      <c r="I354" s="30"/>
     </row>
     <row r="355" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I355" s="79"/>
+      <c r="I355" s="30"/>
     </row>
     <row r="356" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I356" s="79"/>
+      <c r="I356" s="30"/>
     </row>
     <row r="357" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I357" s="79"/>
+      <c r="I357" s="30"/>
     </row>
     <row r="358" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I358" s="79"/>
+      <c r="I358" s="30"/>
     </row>
     <row r="359" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I359" s="79"/>
+      <c r="I359" s="30"/>
     </row>
     <row r="360" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I360" s="79"/>
+      <c r="I360" s="30"/>
     </row>
     <row r="361" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I361" s="79"/>
+      <c r="I361" s="30"/>
     </row>
     <row r="362" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I362" s="79"/>
+      <c r="I362" s="30"/>
     </row>
     <row r="363" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I363" s="79"/>
+      <c r="I363" s="30"/>
     </row>
     <row r="364" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I364" s="79"/>
+      <c r="I364" s="30"/>
     </row>
     <row r="365" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I365" s="79"/>
+      <c r="I365" s="30"/>
     </row>
     <row r="366" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I366" s="79"/>
+      <c r="I366" s="30"/>
     </row>
     <row r="367" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I367" s="79"/>
+      <c r="I367" s="30"/>
     </row>
     <row r="368" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I368" s="79"/>
+      <c r="I368" s="30"/>
     </row>
     <row r="369" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I369" s="79"/>
+      <c r="I369" s="30"/>
     </row>
     <row r="370" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I370" s="79"/>
+      <c r="I370" s="30"/>
     </row>
     <row r="371" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I371" s="79"/>
+      <c r="I371" s="30"/>
     </row>
     <row r="372" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I372" s="79"/>
+      <c r="I372" s="30"/>
     </row>
     <row r="373" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I373" s="79"/>
+      <c r="I373" s="30"/>
     </row>
     <row r="374" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I374" s="79"/>
+      <c r="I374" s="30"/>
     </row>
     <row r="375" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I375" s="79"/>
+      <c r="I375" s="30"/>
     </row>
     <row r="376" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I376" s="79"/>
+      <c r="I376" s="30"/>
     </row>
     <row r="377" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I377" s="79"/>
+      <c r="I377" s="30"/>
     </row>
     <row r="378" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I378" s="79"/>
+      <c r="I378" s="30"/>
     </row>
     <row r="379" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I379" s="79"/>
+      <c r="I379" s="30"/>
     </row>
     <row r="380" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I380" s="79"/>
+      <c r="I380" s="30"/>
     </row>
     <row r="381" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I381" s="79"/>
+      <c r="I381" s="30"/>
     </row>
     <row r="382" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I382" s="79"/>
+      <c r="I382" s="30"/>
     </row>
     <row r="383" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I383" s="79"/>
+      <c r="I383" s="30"/>
     </row>
     <row r="384" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I384" s="79"/>
+      <c r="I384" s="30"/>
     </row>
     <row r="385" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I385" s="79"/>
+      <c r="I385" s="30"/>
     </row>
     <row r="386" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I386" s="79"/>
+      <c r="I386" s="30"/>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I387" s="79"/>
+      <c r="I387" s="30"/>
     </row>
     <row r="388" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I388" s="79"/>
+      <c r="I388" s="30"/>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I389" s="79"/>
+      <c r="I389" s="30"/>
     </row>
     <row r="390" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I390" s="79"/>
+      <c r="I390" s="30"/>
     </row>
     <row r="391" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I391" s="79"/>
+      <c r="I391" s="30"/>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I392" s="79"/>
+      <c r="I392" s="30"/>
     </row>
     <row r="393" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I393" s="79"/>
+      <c r="I393" s="30"/>
     </row>
     <row r="394" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I394" s="79"/>
+      <c r="I394" s="30"/>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I395" s="79"/>
+      <c r="I395" s="30"/>
     </row>
     <row r="396" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I396" s="79"/>
+      <c r="I396" s="30"/>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I397" s="79"/>
+      <c r="I397" s="30"/>
     </row>
     <row r="398" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I398" s="79"/>
+      <c r="I398" s="30"/>
     </row>
     <row r="399" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I399" s="79"/>
+      <c r="I399" s="30"/>
     </row>
     <row r="400" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I400" s="79"/>
+      <c r="I400" s="30"/>
     </row>
     <row r="401" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I401" s="79"/>
+      <c r="I401" s="30"/>
     </row>
     <row r="402" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I402" s="79"/>
+      <c r="I402" s="30"/>
     </row>
     <row r="403" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I403" s="79"/>
+      <c r="I403" s="30"/>
     </row>
     <row r="404" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I404" s="79"/>
+      <c r="I404" s="30"/>
     </row>
     <row r="405" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I405" s="79"/>
+      <c r="I405" s="30"/>
     </row>
     <row r="406" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I406" s="79"/>
+      <c r="I406" s="30"/>
     </row>
     <row r="407" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I407" s="79"/>
+      <c r="I407" s="30"/>
     </row>
     <row r="408" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I408" s="79"/>
+      <c r="I408" s="30"/>
     </row>
     <row r="409" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I409" s="79"/>
+      <c r="I409" s="30"/>
     </row>
     <row r="410" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I410" s="79"/>
+      <c r="I410" s="30"/>
     </row>
     <row r="411" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I411" s="79"/>
+      <c r="I411" s="30"/>
     </row>
     <row r="412" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I412" s="79"/>
+      <c r="I412" s="30"/>
     </row>
     <row r="413" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I413" s="79"/>
+      <c r="I413" s="30"/>
     </row>
     <row r="414" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I414" s="79"/>
+      <c r="I414" s="30"/>
     </row>
     <row r="415" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I415" s="79"/>
+      <c r="I415" s="30"/>
     </row>
     <row r="416" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I416" s="79"/>
+      <c r="I416" s="30"/>
     </row>
     <row r="417" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I417" s="79"/>
+      <c r="I417" s="30"/>
     </row>
     <row r="418" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I418" s="79"/>
+      <c r="I418" s="30"/>
     </row>
     <row r="419" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I419" s="79"/>
+      <c r="I419" s="30"/>
     </row>
     <row r="420" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I420" s="79"/>
+      <c r="I420" s="30"/>
     </row>
     <row r="421" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I421" s="79"/>
+      <c r="I421" s="30"/>
     </row>
     <row r="422" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I422" s="79"/>
+      <c r="I422" s="30"/>
     </row>
     <row r="423" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I423" s="79"/>
+      <c r="I423" s="30"/>
     </row>
     <row r="424" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I424" s="79"/>
+      <c r="I424" s="30"/>
     </row>
     <row r="425" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I425" s="79"/>
+      <c r="I425" s="30"/>
     </row>
     <row r="426" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I426" s="79"/>
+      <c r="I426" s="30"/>
     </row>
     <row r="427" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I427" s="79"/>
+      <c r="I427" s="30"/>
     </row>
     <row r="428" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I428" s="79"/>
+      <c r="I428" s="30"/>
     </row>
     <row r="429" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I429" s="79"/>
+      <c r="I429" s="30"/>
     </row>
     <row r="430" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I430" s="79"/>
+      <c r="I430" s="30"/>
     </row>
     <row r="431" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I431" s="79"/>
+      <c r="I431" s="30"/>
     </row>
     <row r="432" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I432" s="79"/>
+      <c r="I432" s="30"/>
     </row>
     <row r="433" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I433" s="79"/>
+      <c r="I433" s="30"/>
     </row>
     <row r="434" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I434" s="79"/>
+      <c r="I434" s="30"/>
     </row>
     <row r="435" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I435" s="79"/>
+      <c r="I435" s="30"/>
     </row>
     <row r="436" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I436" s="79"/>
+      <c r="I436" s="30"/>
     </row>
     <row r="437" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I437" s="79"/>
+      <c r="I437" s="30"/>
     </row>
     <row r="438" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I438" s="79"/>
+      <c r="I438" s="30"/>
     </row>
     <row r="439" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I439" s="79"/>
+      <c r="I439" s="30"/>
     </row>
     <row r="440" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I440" s="79"/>
+      <c r="I440" s="30"/>
     </row>
     <row r="441" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I441" s="79"/>
+      <c r="I441" s="30"/>
     </row>
     <row r="442" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I442" s="79"/>
+      <c r="I442" s="30"/>
     </row>
     <row r="443" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I443" s="79"/>
+      <c r="I443" s="30"/>
     </row>
     <row r="444" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I444" s="79"/>
+      <c r="I444" s="30"/>
     </row>
     <row r="445" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I445" s="79"/>
+      <c r="I445" s="30"/>
     </row>
     <row r="446" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I446" s="79"/>
+      <c r="I446" s="30"/>
     </row>
     <row r="447" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I447" s="79"/>
+      <c r="I447" s="30"/>
     </row>
     <row r="448" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I448" s="79"/>
+      <c r="I448" s="30"/>
     </row>
     <row r="449" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I449" s="79"/>
+      <c r="I449" s="30"/>
     </row>
     <row r="450" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I450" s="79"/>
+      <c r="I450" s="30"/>
     </row>
     <row r="451" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I451" s="79"/>
+      <c r="I451" s="30"/>
     </row>
     <row r="452" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I452" s="79"/>
+      <c r="I452" s="30"/>
     </row>
     <row r="453" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I453" s="79"/>
+      <c r="I453" s="30"/>
     </row>
     <row r="454" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I454" s="79"/>
+      <c r="I454" s="30"/>
     </row>
     <row r="455" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I455" s="79"/>
+      <c r="I455" s="30"/>
     </row>
     <row r="456" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I456" s="79"/>
+      <c r="I456" s="30"/>
     </row>
     <row r="457" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I457" s="79"/>
+      <c r="I457" s="30"/>
     </row>
     <row r="458" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I458" s="79"/>
+      <c r="I458" s="30"/>
     </row>
     <row r="459" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I459" s="79"/>
+      <c r="I459" s="30"/>
     </row>
     <row r="460" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I460" s="79"/>
+      <c r="I460" s="30"/>
     </row>
     <row r="461" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I461" s="79"/>
+      <c r="I461" s="30"/>
     </row>
     <row r="462" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I462" s="79"/>
+      <c r="I462" s="30"/>
     </row>
     <row r="463" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I463" s="79"/>
+      <c r="I463" s="30"/>
     </row>
     <row r="464" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I464" s="79"/>
+      <c r="I464" s="30"/>
     </row>
     <row r="465" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I465" s="79"/>
+      <c r="I465" s="30"/>
     </row>
     <row r="466" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I466" s="79"/>
+      <c r="I466" s="30"/>
     </row>
     <row r="467" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I467" s="79"/>
+      <c r="I467" s="30"/>
     </row>
     <row r="468" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I468" s="79"/>
+      <c r="I468" s="30"/>
     </row>
     <row r="469" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I469" s="79"/>
+      <c r="I469" s="30"/>
     </row>
     <row r="470" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I470" s="79"/>
+      <c r="I470" s="30"/>
     </row>
     <row r="471" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I471" s="79"/>
+      <c r="I471" s="30"/>
     </row>
     <row r="472" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I472" s="79"/>
+      <c r="I472" s="30"/>
     </row>
     <row r="473" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I473" s="79"/>
+      <c r="I473" s="30"/>
     </row>
     <row r="474" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I474" s="79"/>
+      <c r="I474" s="30"/>
     </row>
     <row r="475" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I475" s="79"/>
+      <c r="I475" s="30"/>
     </row>
     <row r="476" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I476" s="79"/>
+      <c r="I476" s="30"/>
     </row>
     <row r="477" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I477" s="79"/>
+      <c r="I477" s="30"/>
     </row>
     <row r="478" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I478" s="79"/>
+      <c r="I478" s="30"/>
     </row>
     <row r="479" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I479" s="79"/>
+      <c r="I479" s="30"/>
     </row>
     <row r="480" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I480" s="79"/>
+      <c r="I480" s="30"/>
     </row>
     <row r="481" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I481" s="79"/>
+      <c r="I481" s="30"/>
     </row>
     <row r="482" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I482" s="79"/>
+      <c r="I482" s="30"/>
     </row>
     <row r="483" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I483" s="79"/>
+      <c r="I483" s="30"/>
     </row>
     <row r="484" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I484" s="79"/>
+      <c r="I484" s="30"/>
     </row>
     <row r="485" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I485" s="79"/>
+      <c r="I485" s="30"/>
     </row>
     <row r="486" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I486" s="79"/>
+      <c r="I486" s="30"/>
     </row>
     <row r="487" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I487" s="79"/>
+      <c r="I487" s="30"/>
     </row>
     <row r="488" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I488" s="79"/>
+      <c r="I488" s="30"/>
     </row>
     <row r="489" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I489" s="79"/>
+      <c r="I489" s="30"/>
     </row>
     <row r="490" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I490" s="79"/>
+      <c r="I490" s="30"/>
     </row>
     <row r="491" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I491" s="79"/>
+      <c r="I491" s="30"/>
     </row>
     <row r="492" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I492" s="79"/>
+      <c r="I492" s="30"/>
     </row>
     <row r="493" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I493" s="79"/>
+      <c r="I493" s="30"/>
     </row>
     <row r="494" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I494" s="79"/>
+      <c r="I494" s="30"/>
     </row>
     <row r="495" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I495" s="79"/>
+      <c r="I495" s="30"/>
     </row>
     <row r="496" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I496" s="79"/>
+      <c r="I496" s="30"/>
     </row>
     <row r="497" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I497" s="79"/>
+      <c r="I497" s="30"/>
     </row>
     <row r="498" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I498" s="79"/>
+      <c r="I498" s="30"/>
     </row>
     <row r="499" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I499" s="79"/>
+      <c r="I499" s="30"/>
     </row>
     <row r="500" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I500" s="79"/>
+      <c r="I500" s="30"/>
     </row>
     <row r="501" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I501" s="79"/>
+      <c r="I501" s="30"/>
     </row>
     <row r="502" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I502" s="79"/>
+      <c r="I502" s="30"/>
     </row>
     <row r="503" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I503" s="79"/>
+      <c r="I503" s="30"/>
     </row>
     <row r="504" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I504" s="79"/>
+      <c r="I504" s="30"/>
     </row>
     <row r="505" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I505" s="79"/>
+      <c r="I505" s="30"/>
     </row>
     <row r="506" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I506" s="79"/>
+      <c r="I506" s="30"/>
     </row>
     <row r="507" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I507" s="79"/>
+      <c r="I507" s="30"/>
     </row>
     <row r="508" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I508" s="79"/>
+      <c r="I508" s="30"/>
     </row>
     <row r="509" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I509" s="79"/>
+      <c r="I509" s="30"/>
     </row>
     <row r="510" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I510" s="79"/>
+      <c r="I510" s="30"/>
     </row>
     <row r="511" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I511" s="79"/>
+      <c r="I511" s="30"/>
     </row>
     <row r="512" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I512" s="79"/>
+      <c r="I512" s="30"/>
     </row>
     <row r="513" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I513" s="79"/>
+      <c r="I513" s="30"/>
     </row>
     <row r="514" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I514" s="79"/>
+      <c r="I514" s="30"/>
     </row>
     <row r="515" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I515" s="79"/>
+      <c r="I515" s="30"/>
     </row>
     <row r="516" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I516" s="79"/>
+      <c r="I516" s="30"/>
     </row>
     <row r="517" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I517" s="79"/>
+      <c r="I517" s="30"/>
     </row>
     <row r="518" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I518" s="79"/>
+      <c r="I518" s="30"/>
     </row>
     <row r="519" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I519" s="79"/>
+      <c r="I519" s="30"/>
     </row>
     <row r="520" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I520" s="79"/>
+      <c r="I520" s="30"/>
     </row>
     <row r="521" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I521" s="79"/>
+      <c r="I521" s="30"/>
     </row>
     <row r="522" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I522" s="79"/>
+      <c r="I522" s="30"/>
     </row>
     <row r="523" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I523" s="79"/>
+      <c r="I523" s="30"/>
     </row>
     <row r="524" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I524" s="79"/>
+      <c r="I524" s="30"/>
     </row>
     <row r="525" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I525" s="79"/>
+      <c r="I525" s="30"/>
     </row>
     <row r="526" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I526" s="79"/>
+      <c r="I526" s="30"/>
     </row>
     <row r="527" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I527" s="79"/>
+      <c r="I527" s="30"/>
     </row>
     <row r="528" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I528" s="79"/>
+      <c r="I528" s="30"/>
     </row>
     <row r="529" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I529" s="79"/>
+      <c r="I529" s="30"/>
     </row>
     <row r="530" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I530" s="79"/>
+      <c r="I530" s="30"/>
     </row>
     <row r="531" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I531" s="79"/>
+      <c r="I531" s="30"/>
     </row>
     <row r="532" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I532" s="79"/>
+      <c r="I532" s="30"/>
     </row>
     <row r="533" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I533" s="79"/>
+      <c r="I533" s="30"/>
     </row>
     <row r="534" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I534" s="79"/>
+      <c r="I534" s="30"/>
     </row>
     <row r="535" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I535" s="79"/>
+      <c r="I535" s="30"/>
     </row>
     <row r="536" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I536" s="79"/>
+      <c r="I536" s="30"/>
     </row>
     <row r="537" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I537" s="79"/>
+      <c r="I537" s="30"/>
     </row>
     <row r="538" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I538" s="79"/>
+      <c r="I538" s="30"/>
     </row>
     <row r="539" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I539" s="79"/>
+      <c r="I539" s="30"/>
     </row>
     <row r="540" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I540" s="79"/>
+      <c r="I540" s="30"/>
     </row>
     <row r="541" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I541" s="79"/>
+      <c r="I541" s="30"/>
     </row>
     <row r="542" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I542" s="79"/>
+      <c r="I542" s="30"/>
     </row>
     <row r="543" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I543" s="79"/>
+      <c r="I543" s="30"/>
     </row>
     <row r="544" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I544" s="79"/>
+      <c r="I544" s="30"/>
     </row>
     <row r="545" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I545" s="79"/>
+      <c r="I545" s="30"/>
     </row>
     <row r="546" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I546" s="79"/>
+      <c r="I546" s="30"/>
     </row>
     <row r="547" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I547" s="79"/>
+      <c r="I547" s="30"/>
     </row>
     <row r="548" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I548" s="79"/>
+      <c r="I548" s="30"/>
     </row>
     <row r="549" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I549" s="79"/>
+      <c r="I549" s="30"/>
     </row>
     <row r="550" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I550" s="79"/>
+      <c r="I550" s="30"/>
     </row>
     <row r="551" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I551" s="79"/>
+      <c r="I551" s="30"/>
     </row>
     <row r="552" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I552" s="79"/>
+      <c r="I552" s="30"/>
     </row>
     <row r="553" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I553" s="79"/>
+      <c r="I553" s="30"/>
     </row>
     <row r="554" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I554" s="79"/>
+      <c r="I554" s="30"/>
     </row>
     <row r="555" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I555" s="79"/>
+      <c r="I555" s="30"/>
     </row>
     <row r="556" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I556" s="79"/>
+      <c r="I556" s="30"/>
     </row>
     <row r="557" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I557" s="79"/>
+      <c r="I557" s="30"/>
     </row>
     <row r="558" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I558" s="79"/>
+      <c r="I558" s="30"/>
     </row>
     <row r="559" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I559" s="79"/>
+      <c r="I559" s="30"/>
     </row>
     <row r="560" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I560" s="79"/>
+      <c r="I560" s="30"/>
     </row>
     <row r="561" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I561" s="79"/>
+      <c r="I561" s="30"/>
     </row>
     <row r="562" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I562" s="79"/>
+      <c r="I562" s="30"/>
     </row>
     <row r="563" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I563" s="79"/>
+      <c r="I563" s="30"/>
     </row>
     <row r="564" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I564" s="79"/>
+      <c r="I564" s="30"/>
     </row>
     <row r="565" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I565" s="79"/>
+      <c r="I565" s="30"/>
     </row>
     <row r="566" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I566" s="79"/>
+      <c r="I566" s="30"/>
     </row>
     <row r="567" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I567" s="79"/>
+      <c r="I567" s="30"/>
     </row>
     <row r="568" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I568" s="79"/>
+      <c r="I568" s="30"/>
     </row>
     <row r="569" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I569" s="79"/>
+      <c r="I569" s="30"/>
     </row>
     <row r="570" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I570" s="79"/>
+      <c r="I570" s="30"/>
     </row>
     <row r="571" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I571" s="79"/>
+      <c r="I571" s="30"/>
     </row>
     <row r="572" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I572" s="79"/>
+      <c r="I572" s="30"/>
     </row>
     <row r="573" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I573" s="79"/>
+      <c r="I573" s="30"/>
     </row>
     <row r="574" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I574" s="79"/>
+      <c r="I574" s="30"/>
     </row>
     <row r="575" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I575" s="79"/>
+      <c r="I575" s="30"/>
     </row>
     <row r="576" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I576" s="79"/>
+      <c r="I576" s="30"/>
     </row>
     <row r="577" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I577" s="79"/>
+      <c r="I577" s="30"/>
     </row>
     <row r="578" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I578" s="79"/>
+      <c r="I578" s="30"/>
     </row>
     <row r="579" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I579" s="79"/>
+      <c r="I579" s="30"/>
     </row>
     <row r="580" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I580" s="79"/>
+      <c r="I580" s="30"/>
     </row>
     <row r="581" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I581" s="79"/>
+      <c r="I581" s="30"/>
     </row>
     <row r="582" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I582" s="79"/>
+      <c r="I582" s="30"/>
     </row>
     <row r="583" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I583" s="79"/>
+      <c r="I583" s="30"/>
     </row>
     <row r="584" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I584" s="79"/>
+      <c r="I584" s="30"/>
     </row>
     <row r="585" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I585" s="79"/>
+      <c r="I585" s="30"/>
     </row>
     <row r="586" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I586" s="79"/>
+      <c r="I586" s="30"/>
     </row>
     <row r="587" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I587" s="79"/>
+      <c r="I587" s="30"/>
     </row>
     <row r="588" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I588" s="79"/>
+      <c r="I588" s="30"/>
     </row>
     <row r="589" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I589" s="79"/>
+      <c r="I589" s="30"/>
     </row>
     <row r="590" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I590" s="79"/>
+      <c r="I590" s="30"/>
     </row>
     <row r="591" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I591" s="79"/>
+      <c r="I591" s="30"/>
     </row>
     <row r="592" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I592" s="79"/>
+      <c r="I592" s="30"/>
     </row>
     <row r="593" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I593" s="79"/>
+      <c r="I593" s="30"/>
     </row>
     <row r="594" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I594" s="79"/>
+      <c r="I594" s="30"/>
     </row>
     <row r="595" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I595" s="79"/>
+      <c r="I595" s="30"/>
     </row>
     <row r="596" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I596" s="79"/>
+      <c r="I596" s="30"/>
     </row>
     <row r="597" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I597" s="79"/>
+      <c r="I597" s="30"/>
     </row>
     <row r="598" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I598" s="79"/>
+      <c r="I598" s="30"/>
     </row>
     <row r="599" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I599" s="79"/>
+      <c r="I599" s="30"/>
     </row>
     <row r="600" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I600" s="79"/>
+      <c r="I600" s="30"/>
     </row>
     <row r="601" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I601" s="79"/>
+      <c r="I601" s="30"/>
     </row>
     <row r="602" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I602" s="79"/>
+      <c r="I602" s="30"/>
     </row>
     <row r="603" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I603" s="79"/>
+      <c r="I603" s="30"/>
     </row>
     <row r="604" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I604" s="79"/>
+      <c r="I604" s="30"/>
     </row>
     <row r="605" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I605" s="79"/>
+      <c r="I605" s="30"/>
     </row>
     <row r="606" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I606" s="79"/>
+      <c r="I606" s="30"/>
     </row>
     <row r="607" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I607" s="79"/>
+      <c r="I607" s="30"/>
     </row>
     <row r="608" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I608" s="79"/>
+      <c r="I608" s="30"/>
     </row>
     <row r="609" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I609" s="79"/>
+      <c r="I609" s="30"/>
     </row>
     <row r="610" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I610" s="79"/>
+      <c r="I610" s="30"/>
     </row>
     <row r="611" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I611" s="79"/>
+      <c r="I611" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="217">
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="H129:H132"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="E149:E153"/>
+    <mergeCell ref="F149:F153"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="E144:E148"/>
+    <mergeCell ref="F144:F148"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="F78:F83"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="E72:E77"/>
+    <mergeCell ref="F72:F77"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="H154:H157"/>
+    <mergeCell ref="G99:G102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="H124:H127"/>
     <mergeCell ref="H139:H142"/>
     <mergeCell ref="A170:H170"/>
     <mergeCell ref="G2:H2"/>
@@ -7508,199 +7701,6 @@
     <mergeCell ref="E154:E158"/>
     <mergeCell ref="F154:F158"/>
     <mergeCell ref="G154:G157"/>
-    <mergeCell ref="H154:H157"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="H104:H107"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="D72:D77"/>
-    <mergeCell ref="E72:E77"/>
-    <mergeCell ref="F72:F77"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="E78:E83"/>
-    <mergeCell ref="F78:F83"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="H144:H147"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="C149:C153"/>
-    <mergeCell ref="D149:D153"/>
-    <mergeCell ref="E149:E153"/>
-    <mergeCell ref="F149:F153"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="E144:E148"/>
-    <mergeCell ref="F144:F148"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="H124:H127"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="H129:H132"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G119:G122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="H134:H137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" verticalDpi="0" r:id="rId1"/>
